--- a/Сессия 1/productsale_k_import.xlsx
+++ b/Сессия 1/productsale_k_import.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Николаев Вячеслав\Downloads\Попрыженок\КОД 1.6._ВАРИАНТ_9\Сессия 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -499,7 +494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -854,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -862,2339 +857,2339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M101"/>
+  <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.54296875" customWidth="1"/>
-    <col min="12" max="12" width="26.26953125" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="2"/>
+    <col min="2" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>90</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>40350</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>23</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>70</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>42417</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>83</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>24</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>38</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>41220</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>53</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>46</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>93</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>43617</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>79</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>21</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>61</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>41801</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>95</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>29</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>41133</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>64</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>7</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>90</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>35</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>21</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>41178</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>8</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>17</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>38</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>43159</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>93</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>9</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>96</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>43358</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>33</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>40782</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>96</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>11</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>42</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>25</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>40774</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>12</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>45</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>38</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>42037</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>70</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>13</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>48</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>94</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>40725</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>14</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>39</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>14</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>47</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>40</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>41631</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>74</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>15</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>7</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>43050</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>49</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>16</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>92</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
         <v>24</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>35</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>41744</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>14</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>22</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>17</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>37</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>43273</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>6</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>63</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>18</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
         <v>39</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>57</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>41466</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>82</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>19</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>42595</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>7</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>56</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>20</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
         <v>47</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>21</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>41848</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>8</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>16</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>21</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>14</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>62</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>40283</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>8</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>97</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>22</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>14</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>42</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>43020</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>8</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>10</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>23</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
         <v>38</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>88</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>41154</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>13</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>12</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>24</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
         <v>17</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>91</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>42224</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>14</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>98</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>25</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>49</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="1">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>41054</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>15</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>72</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>26</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>36</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>30</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>41704</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>12</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>58</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>27</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
         <v>16</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>29</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>42508</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>6</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>69</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>28</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>94</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
         <v>50</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>89</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>41831</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>10</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>68</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>29</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>114</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
         <v>45</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>63</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>42600</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>8</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>99</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>30</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>43671</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>19</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>66</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>31</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>48</v>
       </c>
-      <c r="M31" s="2">
+      <c r="N31" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
         <v>40</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C32" s="1">
         <v>53</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>43541</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>6</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>80</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>32</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>115</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
         <v>20</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C33" s="1">
         <v>47</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="3">
         <v>41857</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>9</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>78</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>33</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>116</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
         <v>27</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>40798</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>18</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>89</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>34</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
         <v>14</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C35" s="1">
         <v>19</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>40783</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>11</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>20</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>35</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="2">
+      <c r="N35" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
         <v>41</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C36" s="1">
         <v>63</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>42363</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>4</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>47</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>36</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>34</v>
       </c>
-      <c r="M36" s="2">
+      <c r="N36" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="B37" s="1">
+      <c r="C37" s="1">
         <v>18</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>42425</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>8</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>100</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>37</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>118</v>
       </c>
-      <c r="M37" s="2">
+      <c r="N37" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
         <v>8</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1">
         <v>11</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <v>42893</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>42</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>38</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>35</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C39" s="1">
         <v>96</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>42701</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>6</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>36</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>39</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="2">
+      <c r="N39" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
         <v>18</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C40" s="1">
         <v>7</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="3">
         <v>40980</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>18</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>54</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>40</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>119</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
         <v>7</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="1">
         <v>59</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>43264</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>18</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>60</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>41</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>32</v>
       </c>
-      <c r="M41" s="2">
+      <c r="N41" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
         <v>31</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="1">
         <v>30</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>43044</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>27</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>42</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>120</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
         <v>38</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="1">
         <v>16</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>42426</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>77</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>43</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>41</v>
       </c>
-      <c r="M43" s="2">
+      <c r="N43" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
         <v>29</v>
       </c>
-      <c r="B44" s="1">
+      <c r="C44" s="1">
         <v>90</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <v>40349</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>8</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>85</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>44</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>121</v>
       </c>
-      <c r="M44" s="2">
+      <c r="N44" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
         <v>28</v>
       </c>
-      <c r="B45" s="1">
+      <c r="C45" s="1">
         <v>7</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>42178</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>12</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>29</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>45</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>122</v>
       </c>
-      <c r="M45" s="2">
+      <c r="N45" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
         <v>14</v>
       </c>
-      <c r="B46" s="1">
+      <c r="C46" s="1">
         <v>33</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>41298</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>3</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>14</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>46</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>123</v>
       </c>
-      <c r="M46" s="2">
+      <c r="N46" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
         <v>13</v>
       </c>
-      <c r="B47" s="1">
+      <c r="C47" s="1">
         <v>9</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>42063</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>5</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>31</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>47</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>124</v>
       </c>
-      <c r="M47" s="2">
+      <c r="N47" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
         <v>42</v>
       </c>
-      <c r="B48" s="1">
+      <c r="C48" s="1">
         <v>18</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>43651</v>
       </c>
-      <c r="D48" s="1">
+      <c r="E48" s="1">
         <v>14</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>30</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>48</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>57</v>
       </c>
-      <c r="M48" s="2">
+      <c r="N48" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
         <v>40</v>
       </c>
-      <c r="B49" s="1">
+      <c r="C49" s="1">
         <v>92</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>41704</v>
       </c>
-      <c r="D49" s="1">
+      <c r="E49" s="1">
         <v>6</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>45</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>49</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>88</v>
       </c>
-      <c r="M49" s="2">
+      <c r="N49" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
         <v>31</v>
       </c>
-      <c r="B50" s="1">
+      <c r="C50" s="1">
         <v>94</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>42856</v>
       </c>
-      <c r="D50" s="1">
+      <c r="E50" s="1">
         <v>5</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>50</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>50</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>125</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
         <v>26</v>
       </c>
-      <c r="B51" s="1">
+      <c r="C51" s="1">
         <v>51</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <v>42021</v>
       </c>
-      <c r="D51" s="1">
+      <c r="E51" s="1">
         <v>15</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>126</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
         <v>15</v>
       </c>
-      <c r="B52" s="1">
+      <c r="C52" s="1">
         <v>82</v>
       </c>
-      <c r="C52" s="3">
+      <c r="D52" s="3">
         <v>43204</v>
       </c>
-      <c r="D52" s="1">
+      <c r="E52" s="1">
         <v>7</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>73</v>
       </c>
-      <c r="M52" s="2">
+      <c r="N52" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
         <v>18</v>
       </c>
-      <c r="B53" s="1">
+      <c r="C53" s="1">
         <v>94</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>41985</v>
       </c>
-      <c r="D53" s="1">
+      <c r="E53" s="1">
         <v>14</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>127</v>
       </c>
-      <c r="M53" s="2">
+      <c r="N53" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
         <v>17</v>
       </c>
-      <c r="B54" s="1">
+      <c r="C54" s="1">
         <v>40</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>42091</v>
       </c>
-      <c r="D54" s="1">
+      <c r="E54" s="1">
         <v>16</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>55</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
         <v>41</v>
       </c>
-      <c r="B55" s="1">
+      <c r="C55" s="1">
         <v>13</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>43063</v>
       </c>
-      <c r="D55" s="1">
+      <c r="E55" s="1">
         <v>15</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>128</v>
       </c>
-      <c r="M55" s="2">
+      <c r="N55" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
         <v>46</v>
       </c>
-      <c r="B56" s="1">
+      <c r="C56" s="1">
         <v>11</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>43643</v>
       </c>
-      <c r="D56" s="1">
+      <c r="E56" s="1">
         <v>10</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>91</v>
       </c>
-      <c r="M56" s="2">
+      <c r="N56" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
         <v>29</v>
       </c>
-      <c r="B57" s="1">
+      <c r="C57" s="1">
         <v>87</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>41794</v>
       </c>
-      <c r="D57" s="1">
+      <c r="E57" s="1">
         <v>2</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>129</v>
       </c>
-      <c r="M57" s="2">
+      <c r="N57" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
         <v>43</v>
       </c>
-      <c r="B58" s="1">
+      <c r="C58" s="1">
         <v>57</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>43542</v>
       </c>
-      <c r="D58" s="1">
+      <c r="E58" s="1">
         <v>11</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>37</v>
       </c>
-      <c r="M58" s="2">
+      <c r="N58" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
         <v>42</v>
       </c>
-      <c r="B59" s="1">
+      <c r="C59" s="1">
         <v>13</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="3">
         <v>42259</v>
       </c>
-      <c r="D59" s="1">
+      <c r="E59" s="1">
         <v>8</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>81</v>
       </c>
-      <c r="M59" s="2">
+      <c r="N59" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
         <v>47</v>
       </c>
-      <c r="B60" s="1">
+      <c r="C60" s="1">
         <v>59</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <v>40910</v>
       </c>
-      <c r="D60" s="1">
+      <c r="E60" s="1">
         <v>13</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>65</v>
       </c>
-      <c r="M60" s="2">
+      <c r="N60" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
         <v>24</v>
       </c>
-      <c r="B61" s="1">
+      <c r="C61" s="1">
         <v>9</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <v>40575</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <v>12</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>130</v>
       </c>
-      <c r="M61" s="2">
+      <c r="N61" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
         <v>33</v>
       </c>
-      <c r="B62" s="1">
+      <c r="C62" s="1">
         <v>24</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <v>42650</v>
       </c>
-      <c r="D62" s="1">
+      <c r="E62" s="1">
         <v>17</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>17</v>
       </c>
-      <c r="M62" s="2">
+      <c r="N62" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
         <v>4</v>
       </c>
-      <c r="B63" s="1">
+      <c r="C63" s="1">
         <v>91</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="3">
         <v>42893</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E63" s="1">
         <v>1</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>40</v>
       </c>
-      <c r="M63" s="2">
+      <c r="N63" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
         <v>5</v>
       </c>
-      <c r="B64" s="1">
+      <c r="C64" s="1">
         <v>47</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="3">
         <v>42426</v>
       </c>
-      <c r="D64" s="1">
+      <c r="E64" s="1">
         <v>14</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>52</v>
       </c>
-      <c r="M64" s="2">
+      <c r="N64" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
         <v>2</v>
       </c>
-      <c r="B65" s="1">
+      <c r="C65" s="1">
         <v>47</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="3">
         <v>41587</v>
       </c>
-      <c r="D65" s="1">
+      <c r="E65" s="1">
         <v>5</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>131</v>
       </c>
-      <c r="M65" s="2">
+      <c r="N65" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
         <v>40</v>
       </c>
-      <c r="B66" s="1">
+      <c r="C66" s="1">
         <v>9</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="3">
         <v>42186</v>
       </c>
-      <c r="D66" s="1">
+      <c r="E66" s="1">
         <v>14</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>132</v>
       </c>
-      <c r="M66" s="2">
+      <c r="N66" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
         <v>32</v>
       </c>
-      <c r="B67" s="1">
+      <c r="C67" s="1">
         <v>58</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="3">
         <v>42243</v>
       </c>
-      <c r="D67" s="1">
+      <c r="E67" s="1">
         <v>6</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>133</v>
       </c>
-      <c r="M67" s="2">
+      <c r="N67" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
         <v>23</v>
       </c>
-      <c r="B68" s="1">
+      <c r="C68" s="1">
         <v>59</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="3">
         <v>41513</v>
       </c>
-      <c r="D68" s="1">
+      <c r="E68" s="1">
         <v>15</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>134</v>
       </c>
-      <c r="M68" s="2">
+      <c r="N68" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
         <v>19</v>
       </c>
-      <c r="B69" s="1">
+      <c r="C69" s="1">
         <v>61</v>
       </c>
-      <c r="C69" s="3">
+      <c r="D69" s="3">
         <v>41404</v>
       </c>
-      <c r="D69" s="1">
+      <c r="E69" s="1">
         <v>2</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" t="s">
         <v>135</v>
       </c>
-      <c r="M69" s="2">
+      <c r="N69" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
         <v>24</v>
       </c>
-      <c r="B70" s="1">
+      <c r="C70" s="1">
         <v>53</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="3">
         <v>41609</v>
       </c>
-      <c r="D70" s="1">
+      <c r="E70" s="1">
         <v>19</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>136</v>
       </c>
-      <c r="M70" s="2">
+      <c r="N70" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
         <v>15</v>
       </c>
-      <c r="B71" s="1">
+      <c r="C71" s="1">
         <v>70</v>
       </c>
-      <c r="C71" s="3">
+      <c r="D71" s="3">
         <v>40705</v>
       </c>
-      <c r="D71" s="1">
+      <c r="E71" s="1">
         <v>16</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>11</v>
       </c>
-      <c r="M71" s="2">
+      <c r="N71" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
         <v>2</v>
       </c>
-      <c r="B72" s="1">
+      <c r="C72" s="1">
         <v>25</v>
       </c>
-      <c r="C72" s="3">
+      <c r="D72" s="3">
         <v>43609</v>
       </c>
-      <c r="D72" s="1">
+      <c r="E72" s="1">
         <v>16</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>137</v>
       </c>
-      <c r="M72" s="2">
+      <c r="N72" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
         <v>46</v>
       </c>
-      <c r="B73" s="1">
+      <c r="C73" s="1">
         <v>47</v>
       </c>
-      <c r="C73" s="3">
+      <c r="D73" s="3">
         <v>42827</v>
       </c>
-      <c r="D73" s="1">
+      <c r="E73" s="1">
         <v>1</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>138</v>
       </c>
-      <c r="M73" s="2">
+      <c r="N73" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
         <v>3</v>
       </c>
-      <c r="B74" s="1">
+      <c r="C74" s="1">
         <v>29</v>
       </c>
-      <c r="C74" s="3">
+      <c r="D74" s="3">
         <v>41372</v>
       </c>
-      <c r="D74" s="1">
+      <c r="E74" s="1">
         <v>10</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>139</v>
       </c>
-      <c r="M74" s="2">
+      <c r="N74" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
         <v>50</v>
       </c>
-      <c r="B75" s="1">
+      <c r="C75" s="1">
         <v>51</v>
       </c>
-      <c r="C75" s="3">
+      <c r="D75" s="3">
         <v>43693</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <v>20</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>140</v>
       </c>
-      <c r="M75" s="2">
+      <c r="N75" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
         <v>46</v>
       </c>
-      <c r="B76" s="1">
+      <c r="C76" s="1">
         <v>80</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="3">
         <v>40903</v>
       </c>
-      <c r="D76" s="1">
+      <c r="E76" s="1">
         <v>5</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" t="s">
         <v>141</v>
       </c>
-      <c r="M76" s="2">
+      <c r="N76" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
         <v>21</v>
       </c>
-      <c r="B77" s="1">
+      <c r="C77" s="1">
         <v>25</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="3">
         <v>42570</v>
       </c>
-      <c r="D77" s="1">
+      <c r="E77" s="1">
         <v>19</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>87</v>
       </c>
-      <c r="M77" s="2">
+      <c r="N77" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
         <v>44</v>
       </c>
-      <c r="B78" s="1">
+      <c r="C78" s="1">
         <v>19</v>
       </c>
-      <c r="C78" s="3">
+      <c r="D78" s="3">
         <v>41715</v>
       </c>
-      <c r="D78" s="1">
+      <c r="E78" s="1">
         <v>1</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>142</v>
       </c>
-      <c r="M78" s="2">
+      <c r="N78" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
         <v>16</v>
       </c>
-      <c r="B79" s="1">
+      <c r="C79" s="1">
         <v>12</v>
       </c>
-      <c r="C79" s="3">
+      <c r="D79" s="3">
         <v>40708</v>
       </c>
-      <c r="D79" s="1">
+      <c r="E79" s="1">
         <v>13</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>143</v>
       </c>
-      <c r="M79" s="2">
+      <c r="N79" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
         <v>29</v>
       </c>
-      <c r="B80" s="1">
+      <c r="C80" s="1">
         <v>76</v>
       </c>
-      <c r="C80" s="3">
+      <c r="D80" s="3">
         <v>42875</v>
       </c>
-      <c r="D80" s="1">
+      <c r="E80" s="1">
         <v>13</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>144</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
         <v>1</v>
       </c>
-      <c r="B81" s="1">
+      <c r="C81" s="1">
         <v>53</v>
       </c>
-      <c r="C81" s="3">
+      <c r="D81" s="3">
         <v>40281</v>
       </c>
-      <c r="D81" s="1">
+      <c r="E81" s="1">
         <v>6</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>84</v>
       </c>
-      <c r="M81" s="2">
+      <c r="N81" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
         <v>1</v>
       </c>
-      <c r="B82" s="1">
+      <c r="C82" s="1">
         <v>12</v>
       </c>
-      <c r="C82" s="3">
+      <c r="D82" s="3">
         <v>43753</v>
       </c>
-      <c r="D82" s="1">
+      <c r="E82" s="1">
         <v>9</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>145</v>
       </c>
-      <c r="M82" s="2">
+      <c r="N82" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
         <v>43</v>
       </c>
-      <c r="B83" s="1">
+      <c r="C83" s="1">
         <v>48</v>
       </c>
-      <c r="C83" s="3">
+      <c r="D83" s="3">
         <v>43746</v>
       </c>
-      <c r="D83" s="1">
+      <c r="E83" s="1">
         <v>20</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>75</v>
       </c>
-      <c r="M83" s="2">
+      <c r="N83" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
         <v>21</v>
       </c>
-      <c r="B84" s="1">
+      <c r="C84" s="1">
         <v>33</v>
       </c>
-      <c r="C84" s="3">
+      <c r="D84" s="3">
         <v>43198</v>
       </c>
-      <c r="D84" s="1">
+      <c r="E84" s="1">
         <v>8</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>146</v>
       </c>
-      <c r="M84" s="2">
+      <c r="N84" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
         <v>34</v>
       </c>
-      <c r="B85" s="1">
+      <c r="C85" s="1">
         <v>30</v>
       </c>
-      <c r="C85" s="3">
+      <c r="D85" s="3">
         <v>41074</v>
       </c>
-      <c r="D85" s="1">
+      <c r="E85" s="1">
         <v>2</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
         <v>147</v>
       </c>
-      <c r="M85" s="2">
+      <c r="N85" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
         <v>28</v>
       </c>
-      <c r="B86" s="1">
+      <c r="C86" s="1">
         <v>62</v>
       </c>
-      <c r="C86" s="3">
+      <c r="D86" s="3">
         <v>41022</v>
       </c>
-      <c r="D86" s="1">
+      <c r="E86" s="1">
         <v>3</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>148</v>
       </c>
-      <c r="M86" s="2">
+      <c r="N86" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
         <v>27</v>
       </c>
-      <c r="B87" s="1">
+      <c r="C87" s="1">
         <v>61</v>
       </c>
-      <c r="C87" s="3">
+      <c r="D87" s="3">
         <v>42233</v>
       </c>
-      <c r="D87" s="1">
+      <c r="E87" s="1">
         <v>6</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>149</v>
       </c>
-      <c r="M87" s="2">
+      <c r="N87" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
         <v>29</v>
       </c>
-      <c r="B88" s="1">
+      <c r="C88" s="1">
         <v>51</v>
       </c>
-      <c r="C88" s="3">
+      <c r="D88" s="3">
         <v>42627</v>
       </c>
-      <c r="D88" s="1">
+      <c r="E88" s="1">
         <v>7</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
         <v>76</v>
       </c>
-      <c r="M88" s="2">
+      <c r="N88" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
         <v>4</v>
       </c>
-      <c r="B89" s="1">
+      <c r="C89" s="1">
         <v>6</v>
       </c>
-      <c r="C89" s="3">
+      <c r="D89" s="3">
         <v>40991</v>
       </c>
-      <c r="D89" s="1">
+      <c r="E89" s="1">
         <v>15</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>43</v>
       </c>
-      <c r="M89" s="2">
+      <c r="N89" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
         <v>38</v>
       </c>
-      <c r="B90" s="1">
+      <c r="C90" s="1">
         <v>55</v>
       </c>
-      <c r="C90" s="3">
+      <c r="D90" s="3">
         <v>40499</v>
       </c>
-      <c r="D90" s="1">
+      <c r="E90" s="1">
         <v>5</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>51</v>
       </c>
-      <c r="M90" s="2">
+      <c r="N90" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
         <v>40</v>
       </c>
-      <c r="B91" s="1">
+      <c r="C91" s="1">
         <v>37</v>
       </c>
-      <c r="C91" s="3">
+      <c r="D91" s="3">
         <v>42691</v>
       </c>
-      <c r="D91" s="1">
+      <c r="E91" s="1">
         <v>13</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>9</v>
       </c>
-      <c r="M91" s="2">
+      <c r="N91" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
         <v>44</v>
       </c>
-      <c r="B92" s="1">
+      <c r="C92" s="1">
         <v>24</v>
       </c>
-      <c r="C92" s="3">
+      <c r="D92" s="3">
         <v>40301</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E92" s="1">
         <v>19</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>44</v>
       </c>
-      <c r="M92" s="2">
+      <c r="N92" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
         <v>12</v>
       </c>
-      <c r="B93" s="1">
+      <c r="C93" s="1">
         <v>15</v>
       </c>
-      <c r="C93" s="3">
+      <c r="D93" s="3">
         <v>43530</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E93" s="1">
         <v>1</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>7</v>
       </c>
-      <c r="M93" s="2">
+      <c r="N93" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
         <v>24</v>
       </c>
-      <c r="B94" s="1">
+      <c r="C94" s="1">
         <v>16</v>
       </c>
-      <c r="C94" s="3">
+      <c r="D94" s="3">
         <v>43022</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E94" s="1">
         <v>20</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>15</v>
       </c>
-      <c r="M94" s="2">
+      <c r="N94" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
         <v>50</v>
       </c>
-      <c r="B95" s="1">
+      <c r="C95" s="1">
         <v>80</v>
       </c>
-      <c r="C95" s="3">
+      <c r="D95" s="3">
         <v>42774</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E95" s="1">
         <v>3</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>0</v>
       </c>
-      <c r="M95" s="2">
+      <c r="N95" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
         <v>13</v>
       </c>
-      <c r="B96" s="1">
+      <c r="C96" s="1">
         <v>25</v>
       </c>
-      <c r="C96" s="3">
+      <c r="D96" s="3">
         <v>42949</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E96" s="1">
         <v>3</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>150</v>
       </c>
-      <c r="M96" s="2">
+      <c r="N96" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
         <v>8</v>
       </c>
-      <c r="B97" s="1">
+      <c r="C97" s="1">
         <v>82</v>
       </c>
-      <c r="C97" s="3">
+      <c r="D97" s="3">
         <v>42803</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E97" s="1">
         <v>18</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>24</v>
       </c>
-      <c r="M97" s="2">
+      <c r="N97" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
         <v>39</v>
       </c>
-      <c r="B98" s="1">
+      <c r="C98" s="1">
         <v>33</v>
       </c>
-      <c r="C98" s="3">
+      <c r="D98" s="3">
         <v>43052</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E98" s="1">
         <v>18</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>151</v>
       </c>
-      <c r="M98" s="2">
+      <c r="N98" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
         <v>39</v>
       </c>
-      <c r="B99" s="1">
+      <c r="C99" s="1">
         <v>30</v>
       </c>
-      <c r="C99" s="3">
+      <c r="D99" s="3">
         <v>42340</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E99" s="1">
         <v>19</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>152</v>
       </c>
-      <c r="M99" s="2">
+      <c r="N99" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
         <v>9</v>
       </c>
-      <c r="B100" s="1">
+      <c r="C100" s="1">
         <v>27</v>
       </c>
-      <c r="C100" s="3">
+      <c r="D100" s="3">
         <v>40708</v>
       </c>
-      <c r="D100" s="1">
+      <c r="E100" s="1">
         <v>19</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>153</v>
       </c>
-      <c r="M100" s="2">
+      <c r="N100" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
         <v>1</v>
       </c>
-      <c r="B101" s="1">
+      <c r="C101" s="1">
         <v>63</v>
       </c>
-      <c r="C101" s="3">
+      <c r="D101" s="3">
         <v>41865</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E101" s="1">
         <v>16</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>154</v>
       </c>
-      <c r="M101" s="2">
+      <c r="N101" s="2">
         <v>100</v>
       </c>
     </row>
